--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rekhin/work/automate/SeleniumProject/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EF197B-BD12-1340-8472-4C76C02A7C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB19CA-AAE9-EB4E-AEAF-3683816648BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{350BFC8F-74BE-444F-8065-49CCAE48712B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rekhin/work/automate/SeleniumProject/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEB19CA-AAE9-EB4E-AEAF-3683816648BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AACD968-F98B-FC48-94EA-74FFB2D54259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{350BFC8F-74BE-444F-8065-49CCAE48712B}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
+    <sheet name="personal" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -437,4 +438,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074A7813-45BD-F140-852F-6DFEC6A42D85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>